--- a/results/robust_recourse_iterative/Main workbooks/simul results comparison.xlsx
+++ b/results/robust_recourse_iterative/Main workbooks/simul results comparison.xlsx
@@ -293,6 +293,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,9 +303,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1476,7 +1476,7 @@
                 </c:spPr>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$39:$E$51</c15:sqref>
@@ -1528,7 +1528,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-A19F-4170-A5DD-6DD369F30850}"/>
                   </c:ext>
@@ -1555,7 +1555,7 @@
                 </c:spPr>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$39:$B$51</c15:sqref>
@@ -1607,7 +1607,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-A19F-4170-A5DD-6DD369F30850}"/>
                   </c:ext>
@@ -1632,7 +1632,7 @@
                 </c:spPr>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$39:$D$51</c15:sqref>
@@ -1684,7 +1684,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-A19F-4170-A5DD-6DD369F30850}"/>
                   </c:ext>
@@ -2142,7 +2142,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$39:$A$51</c15:sqref>
@@ -2196,7 +2196,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$39:$D$51</c15:sqref>
@@ -2249,7 +2249,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-A19F-4170-A5DD-6DD369F30850}"/>
                   </c:ext>
@@ -2277,7 +2277,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$39:$G$50</c15:sqref>
@@ -2320,11 +2320,14 @@
                       <c:pt idx="10">
                         <c:v>112.65443546698727</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>112.39</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-A19F-4170-A5DD-6DD369F30850}"/>
                   </c:ext>
@@ -2868,7 +2871,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-B5A1-4144-B202-4DCCB381EB0C}"/>
                   </c:ext>
@@ -2947,7 +2950,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-B5A1-4144-B202-4DCCB381EB0C}"/>
                   </c:ext>
@@ -3024,7 +3027,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-B5A1-4144-B202-4DCCB381EB0C}"/>
                   </c:ext>
@@ -3527,7 +3530,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$39:$F$51</c15:sqref>
@@ -3580,7 +3583,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-B5A1-4144-B202-4DCCB381EB0C}"/>
                   </c:ext>
@@ -3651,11 +3654,14 @@
                       <c:pt idx="10">
                         <c:v>112.65443546698727</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>112.39</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-B5A1-4144-B202-4DCCB381EB0C}"/>
                   </c:ext>
@@ -4199,7 +4205,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-6E57-42F2-9C06-17E478454580}"/>
                   </c:ext>
@@ -4278,7 +4284,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-6E57-42F2-9C06-17E478454580}"/>
                   </c:ext>
@@ -4355,7 +4361,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-6E57-42F2-9C06-17E478454580}"/>
                   </c:ext>
@@ -4584,10 +4590,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$39:$G$50</c:f>
+              <c:f>Sheet1!$G$39:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>109.20354038562397</c:v>
                 </c:pt>
@@ -4621,8 +4627,13 @@
                 <c:pt idx="10">
                   <c:v>112.65443546698727</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>112.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>112.49</c:v>
+                </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4805,7 +4816,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$39:$A$51</c15:sqref>
@@ -4859,7 +4870,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$39:$C$51</c15:sqref>
@@ -4912,7 +4923,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-6E57-42F2-9C06-17E478454580}"/>
                   </c:ext>
@@ -4943,7 +4954,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$39:$F$51</c15:sqref>
@@ -4996,7 +5007,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-6E57-42F2-9C06-17E478454580}"/>
                   </c:ext>
@@ -5554,7 +5565,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-825D-446E-A3D9-2FE43E258094}"/>
                   </c:ext>
@@ -5637,7 +5648,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-825D-446E-A3D9-2FE43E258094}"/>
                   </c:ext>
@@ -5714,7 +5725,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-825D-446E-A3D9-2FE43E258094}"/>
                   </c:ext>
@@ -6275,7 +6286,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-825D-446E-A3D9-2FE43E258094}"/>
                   </c:ext>
@@ -6359,7 +6370,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-825D-446E-A3D9-2FE43E258094}"/>
                   </c:ext>
@@ -6917,7 +6928,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-549B-40E2-B26D-950D73004771}"/>
                   </c:ext>
@@ -7000,7 +7011,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-549B-40E2-B26D-950D73004771}"/>
                   </c:ext>
@@ -7077,7 +7088,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-549B-40E2-B26D-950D73004771}"/>
                   </c:ext>
@@ -7638,7 +7649,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-549B-40E2-B26D-950D73004771}"/>
                   </c:ext>
@@ -7722,7 +7733,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-549B-40E2-B26D-950D73004771}"/>
                   </c:ext>
@@ -11473,15 +11484,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>122467</xdr:rowOff>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>108860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>149680</xdr:rowOff>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11504,15 +11515,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>40824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11834,8 +11845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB78" sqref="AB78"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11849,24 +11860,24 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -12599,12 +12610,12 @@
       <c r="N18" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -12628,12 +12639,12 @@
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="N22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -13297,6 +13308,9 @@
       <c r="F50">
         <v>99.429301529510141</v>
       </c>
+      <c r="G50">
+        <v>112.39</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
@@ -13317,14 +13331,17 @@
       <c r="F51">
         <v>99.429301529510141</v>
       </c>
+      <c r="G51">
+        <v>112.49</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -13533,12 +13550,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N22:Q22"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="N22:Q22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/robust_recourse_iterative/Main workbooks/simul results comparison.xlsx
+++ b/results/robust_recourse_iterative/Main workbooks/simul results comparison.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Combined results recourse algorithm</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>Switch-Off Penalty</t>
+  </si>
+  <si>
+    <t>s/o</t>
+  </si>
+  <si>
+    <t>ws</t>
+  </si>
+  <si>
+    <t>s/o eev</t>
+  </si>
+  <si>
+    <t>strict eev</t>
+  </si>
+  <si>
+    <t>reversion eev</t>
   </si>
 </sst>
 </file>
@@ -742,43 +757,43 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>55.258176938755234</c:v>
+                        <c:v>48.18327772765042</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>79.092874626695874</c:v>
+                        <c:v>69.943486858697909</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>91.898260263482626</c:v>
+                        <c:v>72.566595480948166</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>91.898260263482626</c:v>
+                        <c:v>72.566595480948166</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>98.547551243872817</c:v>
+                        <c:v>94.969214935371596</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>104.64102684745468</c:v>
+                        <c:v>98.727971997146398</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>104.64102684745468</c:v>
+                        <c:v>98.727971997146398</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>104.64102684745468</c:v>
+                        <c:v>98.727971997146398</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>104.64102684745468</c:v>
+                        <c:v>98.727971997146398</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>104.65966197236172</c:v>
+                        <c:v>98.378909362507855</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>105.95904183257875</c:v>
+                        <c:v>99.271374047134231</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>105.75575769376563</c:v>
+                        <c:v>99.110879494441221</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>105.75575769376563</c:v>
+                        <c:v>97.813741567393123</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -861,43 +876,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>115.05</c:v>
+                  <c:v>101.46986872327017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.58846935776199</c:v>
+                  <c:v>102.42272161834309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.77667603384999</c:v>
+                  <c:v>105.5954243621786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.77667583039999</c:v>
+                  <c:v>105.65801157125878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.10116875113199</c:v>
+                  <c:v>104.24589839139753</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.939860599159</c:v>
+                  <c:v>102.50667366980555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108.522081297307</c:v>
+                  <c:v>102.49033151533575</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>108.30782755820999</c:v>
+                  <c:v>102.34419277546884</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.30782755820999</c:v>
+                  <c:v>102.34867278553726</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.307753839645</c:v>
+                  <c:v>104.86033637984059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108.307753812408</c:v>
+                  <c:v>104.02769253557477</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.11871201266</c:v>
+                  <c:v>104.09193638257148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>108.100436427529</c:v>
+                  <c:v>104.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,43 +949,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>104.2224025970575</c:v>
+                  <c:v>99.178093309855683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.049599204705</c:v>
+                  <c:v>101.59819357112356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.7015509457194</c:v>
+                  <c:v>101.5161730867907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.70155094571925</c:v>
+                  <c:v>101.5161730867907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.61988638874692</c:v>
+                  <c:v>100.58042737501955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107.85926768980687</c:v>
+                  <c:v>100.49822044916883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107.85926768980687</c:v>
+                  <c:v>100.49822044916883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107.85926768980687</c:v>
+                  <c:v>100.49822044916883</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107.85926768980687</c:v>
+                  <c:v>100.49822044916883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107.32817673556752</c:v>
+                  <c:v>99.792292178679489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>107.02330865922056</c:v>
+                  <c:v>99.737886832287828</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>106.8179711452669</c:v>
+                  <c:v>99.575971212788303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106.8179711452669</c:v>
+                  <c:v>98.605575455121723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,6 +1303,1350 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400"/>
+              <a:t>Initial Case</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400" baseline="0"/>
+              <a:t> A: Reversion Penalty</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="669610408"/>
+        <c:axId val="669614016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>EVPI</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$39:$C$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-A3E0-4518-B4C1-21C5DB0DB915}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>VSS</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$39:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>108.27187127943978</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>113.67031379430423</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>114.21539494830016</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>116.08138426208811</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>115.35200699157679</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>115.0099528276165</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>114.69560382312626</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>114.08852893125128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>112.93770485283977</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>112.91023522267056</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>112.91023522267056</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>111.63559539105303</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>111.63559539105303</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-A3E0-4518-B4C1-21C5DB0DB915}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>VSS Strict</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$B$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>48.275643736800184</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>79.745700844568205</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>83.082676005325951</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100.31233925538501</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>102.9305061684053</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>106.64038936756984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>107.85873644733994</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>108.22254629152117</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>107.63446156943486</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-A3E0-4518-B4C1-21C5DB0DB915}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>EEV2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$39:$D$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-A3E0-4518-B4C1-21C5DB0DB915}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+          </c:ext>
+        </c:extLst>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$39:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3E0-4518-B4C1-21C5DB0DB915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Obj.Val.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$56:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>126.21973694452626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129.47882300648922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.85660143363256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.85660143363043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.24817005537153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131.24817005537153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130.49737155861624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.94411352797935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127.94411352797935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127.94411352797935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128.02166474121159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.02166474121159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>127.8647868552555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3E0-4518-B4C1-21C5DB0DB915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>EEV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$56:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121.40867917165258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3E0-4518-B4C1-21C5DB0DB915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="669610408"/>
+        <c:axId val="669614016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Strict Penalty</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$39:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$B$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>48.275643736800184</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>79.745700844568205</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>83.082676005325951</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100.31233925538501</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>102.9305061684053</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>106.64038936756984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>107.85873644733994</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>108.22254629152117</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>107.63446156943486</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-A3E0-4518-B4C1-21C5DB0DB915}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>EEV Strict</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$39:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$39:$D$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-A3E0-4518-B4C1-21C5DB0DB915}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>RA ObjVal</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$39:$G$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>109.20354038562397</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112.78804965807207</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>117.15078233754488</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>117.63506396257284</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>119.35093760876916</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>116.68525913860371</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>115.87529231821765</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>115.87648862685775</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>114.75802726767851</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>112.61797262974525</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>112.65443546698727</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>112.39</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-A3E0-4518-B4C1-21C5DB0DB915}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="669610408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800"/>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669614016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669614016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Oil Output [Sm3/h]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669610408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1823,7 +3182,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>Switch-Off Penalty</c:v>
+            <c:v>Obj.Val.</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1896,7 +3255,7 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>EEV Switch-Off</c:v>
+            <c:v>EEV</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2735,8 +4094,11 @@
                   <a:solidFill>
                     <a:schemeClr val="accent4"/>
                   </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="25400">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
@@ -2891,8 +4253,10 @@
                       <a:lumMod val="60000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="25400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
@@ -2966,10 +4330,15 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="accent6"/>
                   </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="25400">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
@@ -3041,140 +4410,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Strict Penalty</c:v>
+            <c:v>WS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$39:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$39:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>48.275643736800184</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79.745700844568205</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.082676005325951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.31233925538501</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>102.9305061684053</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>106.64038936756984</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>107.85873644733994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>108.22254629152117</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>107.63446156943486</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>107.605033751498</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>107.605033751498</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>108.31154051726779</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>108.31154051726779</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B5A1-4144-B202-4DCCB381EB0C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>EEV Strict Penalty</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -3230,75 +4474,73 @@
                   <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$39:$D$51</c:f>
+              <c:f>Sheet1!$C$39:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.545795752419867</c:v>
+                  <c:v>131.86000000000001</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B5A1-4144-B202-4DCCB381EB0C}"/>
+              <c16:uniqueId val="{00000000-B5A1-4144-B202-4DCCB381EB0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>WS</c:v>
+            <c:v>Obj.Val.</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -3354,60 +4596,186 @@
                   <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$39:$C$51</c:f>
+              <c:f>Sheet1!$B$39:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>48.275643736800184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>79.745700844568205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>83.082676005325951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>100.31233925538501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>102.9305061684053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>106.64038936756984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>107.85873644733994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>108.22254629152117</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>107.63446156943486</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>107.605033751498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>107.605033751498</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>108.31154051726779</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>108.31154051726779</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5A1-4144-B202-4DCCB381EB0C}"/>
+              <c16:uniqueId val="{00000003-B5A1-4144-B202-4DCCB381EB0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>EEV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$39:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$39:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.545795752419867</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B5A1-4144-B202-4DCCB381EB0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3782,7 +5150,7 @@
         <c:axId val="669614016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="18"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4574,7 +5942,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>RA ObjVal</c:v>
+            <c:v>RA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -5812,43 +7180,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>55.258176938755234</c:v>
+                  <c:v>48.18327772765042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.092874626695874</c:v>
+                  <c:v>69.943486858697909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.898260263482626</c:v>
+                  <c:v>72.566595480948166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.898260263482626</c:v>
+                  <c:v>72.566595480948166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.547551243872817</c:v>
+                  <c:v>94.969214935371596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.64102684745468</c:v>
+                  <c:v>98.727971997146398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.64102684745468</c:v>
+                  <c:v>98.727971997146398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.64102684745468</c:v>
+                  <c:v>98.727971997146398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104.64102684745468</c:v>
+                  <c:v>98.727971997146398</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104.65966197236172</c:v>
+                  <c:v>98.378909362507855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105.95904183257875</c:v>
+                  <c:v>99.271374047134231</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105.75575769376563</c:v>
+                  <c:v>99.110879494441221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.75575769376563</c:v>
+                  <c:v>97.813741567393123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5885,43 +7253,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>104.2224025970575</c:v>
+                  <c:v>99.178093309855683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.049599204705</c:v>
+                  <c:v>101.59819357112356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.7015509457194</c:v>
+                  <c:v>101.5161730867907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.70155094571925</c:v>
+                  <c:v>101.5161730867907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.61988638874692</c:v>
+                  <c:v>100.58042737501955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107.85926768980687</c:v>
+                  <c:v>100.49822044916883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107.85926768980687</c:v>
+                  <c:v>100.49822044916883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107.85926768980687</c:v>
+                  <c:v>100.49822044916883</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107.85926768980687</c:v>
+                  <c:v>100.49822044916883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107.32817673556752</c:v>
+                  <c:v>99.792292178679489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>107.02330865922056</c:v>
+                  <c:v>99.737886832287828</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>106.8179711452669</c:v>
+                  <c:v>99.575971212788303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106.8179711452669</c:v>
+                  <c:v>98.605575455121723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5937,7 +7305,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>RA ObjVal</c:v>
+            <c:v>RA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -5958,43 +7326,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>115.05</c:v>
+                  <c:v>101.46986872327017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.58846935776199</c:v>
+                  <c:v>102.42272161834309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.77667603384999</c:v>
+                  <c:v>105.5954243621786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.77667583039999</c:v>
+                  <c:v>105.65801157125878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.10116875113199</c:v>
+                  <c:v>104.24589839139753</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.939860599159</c:v>
+                  <c:v>102.50667366980555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108.522081297307</c:v>
+                  <c:v>102.49033151533575</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>108.30782755820999</c:v>
+                  <c:v>102.34419277546884</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.30782755820999</c:v>
+                  <c:v>102.34867278553726</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.307753839645</c:v>
+                  <c:v>104.86033637984059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108.307753812408</c:v>
+                  <c:v>104.02769253557477</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.11871201266</c:v>
+                  <c:v>104.09193638257148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>108.100436427529</c:v>
+                  <c:v>104.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6621,7 +7989,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12628826069495591"/>
+          <c:y val="0.89335085045832974"/>
+          <c:w val="0.76034806440765279"/>
+          <c:h val="9.1045912422838729E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7248,40 +8625,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>128.85223961904114</c:v>
+                  <c:v>126.21973694452626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130.95960576090386</c:v>
+                  <c:v>129.47882300648922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130.76152422799706</c:v>
+                  <c:v>129.85660143363256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.7615242279949</c:v>
+                  <c:v>129.85660143363043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131.70063145255378</c:v>
+                  <c:v>131.24817005537153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131.70063145255378</c:v>
+                  <c:v>131.24817005537153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130.86756724721988</c:v>
+                  <c:v>130.49737155861624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.06751209084723</c:v>
+                  <c:v>127.94411352797935</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128.06751209084723</c:v>
+                  <c:v>127.94411352797935</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>128.06751209084723</c:v>
+                  <c:v>127.94411352797935</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>128.06279759550088</c:v>
+                  <c:v>128.02166474121159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128.06279759550088</c:v>
+                  <c:v>128.02166474121159</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>127.8647868552555</c:v>
@@ -7300,7 +8677,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>RA ObjVal</c:v>
+            <c:v>RA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -8051,7 +9428,4076 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400"/>
+              <a:t>Initial Case</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400" baseline="0"/>
+              <a:t> B: Switch-Off Penalty</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="669610408"/>
+        <c:axId val="669614016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>EVPI</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$39:$C$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-5DB5-4EAA-A80C-8B5BD66B07F2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>VSS</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$39:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>108.27187127943978</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>113.67031379430423</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>114.21539494830016</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>116.08138426208811</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>115.35200699157679</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>115.0099528276165</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>114.69560382312626</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>114.08852893125128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>112.93770485283977</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>112.91023522267056</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>112.91023522267056</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>111.63559539105303</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>111.63559539105303</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-5DB5-4EAA-A80C-8B5BD66B07F2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>VSS Strict</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$B$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>48.275643736800184</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>79.745700844568205</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>83.082676005325951</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100.31233925538501</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>102.9305061684053</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>106.64038936756984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>107.85873644733994</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>108.22254629152117</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>107.63446156943486</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-5DB5-4EAA-A80C-8B5BD66B07F2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>EEV2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$39:$D$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-5DB5-4EAA-A80C-8B5BD66B07F2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+          </c:ext>
+        </c:extLst>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$39:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$23:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DB5-4EAA-A80C-8B5BD66B07F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Obj.Val.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$23:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>99.178093309855683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.59819357112356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.5161730867907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.5161730867907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.58042737501955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.49822044916883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.49822044916883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.49822044916883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100.49822044916883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.792292178679489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.737886832287828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.575971212788303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.605575455121723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DB5-4EAA-A80C-8B5BD66B07F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>EEV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$23:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DB5-4EAA-A80C-8B5BD66B07F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="669610408"/>
+        <c:axId val="669614016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Strict Penalty</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$39:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$B$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>48.275643736800184</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>79.745700844568205</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>83.082676005325951</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100.31233925538501</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>102.9305061684053</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>106.64038936756984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>107.85873644733994</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>108.22254629152117</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>107.63446156943486</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5DB5-4EAA-A80C-8B5BD66B07F2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>EEV Strict</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$39:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$39:$D$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-5DB5-4EAA-A80C-8B5BD66B07F2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>RA ObjVal</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$39:$G$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>109.20354038562397</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112.78804965807207</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>117.15078233754488</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>117.63506396257284</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>119.35093760876916</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>116.68525913860371</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>115.87529231821765</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>115.87648862685775</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>114.75802726767851</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>112.61797262974525</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>112.65443546698727</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>112.39</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-5DB5-4EAA-A80C-8B5BD66B07F2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="669610408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800"/>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669614016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669614016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="95"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Oil Output [Sm3/h]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669610408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400"/>
+              <a:t>Initial Case</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400" baseline="0"/>
+              <a:t> B: Strict Penalty</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="669610408"/>
+        <c:axId val="669614016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>EVPI</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$39:$C$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-B44A-404A-ABAC-1CFB5D89EE1A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>VSS</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$39:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>108.27187127943978</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>113.67031379430423</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>114.21539494830016</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>116.08138426208811</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>115.35200699157679</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>115.0099528276165</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>114.69560382312626</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>114.08852893125128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>112.93770485283977</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>112.91023522267056</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>112.91023522267056</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>111.63559539105303</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>111.63559539105303</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-B44A-404A-ABAC-1CFB5D89EE1A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>VSS Strict</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$B$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>48.275643736800184</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>79.745700844568205</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>83.082676005325951</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100.31233925538501</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>102.9305061684053</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>106.64038936756984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>107.85873644733994</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>108.22254629152117</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>107.63446156943486</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-B44A-404A-ABAC-1CFB5D89EE1A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>EEV2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$39:$D$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-B44A-404A-ABAC-1CFB5D89EE1A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+          </c:ext>
+        </c:extLst>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$39:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$23:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B44A-404A-ABAC-1CFB5D89EE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Obj.Val.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$23:$R$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>48.18327772765042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.943486858697909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.566595480948166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.566595480948166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.969214935371596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.727971997146398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.727971997146398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.727971997146398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.727971997146398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.378909362507855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.271374047134231</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.110879494441221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.813741567393123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B44A-404A-ABAC-1CFB5D89EE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>EEV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$23:$S$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9978674496961002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B44A-404A-ABAC-1CFB5D89EE1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="669610408"/>
+        <c:axId val="669614016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Strict Penalty</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$39:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$B$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>48.275643736800184</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>79.745700844568205</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>83.082676005325951</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100.31233925538501</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>102.9305061684053</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>106.64038936756984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>107.85873644733994</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>108.22254629152117</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>107.63446156943486</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-B44A-404A-ABAC-1CFB5D89EE1A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>EEV Strict</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$39:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$39:$D$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-B44A-404A-ABAC-1CFB5D89EE1A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>RA ObjVal</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$39:$G$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>109.20354038562397</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112.78804965807207</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>117.15078233754488</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>117.63506396257284</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>119.35093760876916</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>116.68525913860371</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>115.87529231821765</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>115.87648862685775</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>114.75802726767851</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>112.61797262974525</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>112.65443546698727</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>112.39</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-B44A-404A-ABAC-1CFB5D89EE1A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="669610408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800"/>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669614016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669614016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Oil Output [Sm3/h]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669610408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400"/>
+              <a:t>Initial Case </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400" baseline="0"/>
+              <a:t>A: Strict Penalty</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="669610408"/>
+        <c:axId val="669614016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>EVPI</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$39:$C$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>131.86000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C829-4B59-A354-6D006B5FEFB0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>VSS</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$39:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>108.27187127943978</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>113.67031379430423</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>114.21539494830016</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>116.08138426208811</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>115.35200699157679</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>115.0099528276165</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>114.69560382312626</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>114.08852893125128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>112.93770485283977</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>112.91023522267056</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>112.91023522267056</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>111.63559539105303</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>111.63559539105303</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-C829-4B59-A354-6D006B5FEFB0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>VSS Strict</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$B$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>48.275643736800184</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>79.745700844568205</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>83.082676005325951</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100.31233925538501</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>102.9305061684053</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>106.64038936756984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>107.85873644733994</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>108.22254629152117</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>107.63446156943486</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>107.605033751498</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>108.31154051726779</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-C829-4B59-A354-6D006B5FEFB0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>EEV2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$39:$D$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>22.545795752419867</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-C829-4B59-A354-6D006B5FEFB0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+          </c:ext>
+        </c:extLst>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Obj.Val.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$39:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$56:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>92.408536944526261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.46002300648922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.23400143363257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.23400143363043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125.43687005537154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.43687005537154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.74267155861624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126.35921352797935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126.35921352797935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126.35921352797935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>127.49336474121159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>127.49336474121159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>127.8647868552555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C829-4B59-A354-6D006B5FEFB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EEV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$39:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$56:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.823879171652592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C829-4B59-A354-6D006B5FEFB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$39:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C829-4B59-A354-6D006B5FEFB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="669610408"/>
+        <c:axId val="669614016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>Switch-Off Penalty</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$39:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>108.27187127943978</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>113.67031379430423</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>114.21539494830016</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>116.08138426208811</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>115.35200699157679</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>115.0099528276165</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>114.69560382312626</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>114.08852893125128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>112.93770485283977</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>112.91023522267056</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>112.91023522267056</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>111.63559539105303</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>111.63559539105303</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-C829-4B59-A354-6D006B5FEFB0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>EEV Switch-Off</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$39:$F$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>99.429301529510141</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-C829-4B59-A354-6D006B5FEFB0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>RA ObjVal</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$39:$G$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>109.20354038562397</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112.78804965807207</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>117.15078233754488</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>117.63506396257284</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>119.35093760876916</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>116.68525913860371</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>115.87529231821765</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>115.87648862685775</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>114.75802726767851</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>112.61797262974525</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>112.65443546698727</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>112.39</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-C829-4B59-A354-6D006B5FEFB0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="669610408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800"/>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669614016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669614016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+          <c:min val="85"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Oil Output [Sm3/h]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669610408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8291,6 +13737,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8807,7 +14373,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9323,7 +14889,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9839,7 +15405,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10355,7 +15921,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10871,7 +16437,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11387,20 +16953,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11421,16 +19051,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>29936</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408524</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>136318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>313274</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>188025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11451,16 +19081,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>488496</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>349332</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>165329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>248639</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180296</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11484,15 +19114,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>108860</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>180298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>136073</xdr:rowOff>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>17011</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11515,15 +19145,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>40824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11547,16 +19177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>462644</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>486457</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>105455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>421822</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>445635</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>146278</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11572,6 +19202,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>241525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>183697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>146275</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>44904</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123393</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28143</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>52635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>256495</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>62592</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>311726</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>229465</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>34388</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11843,13 +19601,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12513,7 +20275,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>300</v>
       </c>
@@ -12561,7 +20323,7 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>400</v>
       </c>
@@ -12609,15 +20371,21 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
+      <c r="N21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -12639,352 +20407,439 @@
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>55.258176938755234</v>
+        <v>48.18327772765042</v>
       </c>
       <c r="F23">
-        <v>104.2224025970575</v>
+        <v>99.178093309855683</v>
       </c>
       <c r="G23">
-        <v>115.05</v>
+        <v>101.46986872327017</v>
       </c>
       <c r="N23" s="15">
         <v>5</v>
       </c>
       <c r="O23">
-        <v>115.05</v>
+        <v>99.178093309855683</v>
       </c>
       <c r="P23" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q23" s="9">
-        <v>105.79</v>
+      <c r="Q23">
+        <v>98.21</v>
+      </c>
+      <c r="R23">
+        <v>48.18327772765042</v>
+      </c>
+      <c r="S23">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>10</v>
       </c>
       <c r="E24" s="5">
-        <v>79.092874626695874</v>
+        <v>69.943486858697909</v>
       </c>
       <c r="F24">
-        <v>111.049599204705</v>
+        <v>101.59819357112356</v>
       </c>
       <c r="G24">
-        <v>113.58846935776199</v>
+        <v>102.42272161834309</v>
       </c>
       <c r="N24" s="16">
         <v>10</v>
       </c>
       <c r="O24">
-        <v>113.58846935776199</v>
+        <v>101.59819357112356</v>
       </c>
       <c r="P24" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q24" s="9">
-        <v>105.79</v>
+      <c r="Q24">
+        <v>98.21</v>
+      </c>
+      <c r="R24">
+        <v>69.943486858697909</v>
+      </c>
+      <c r="S24">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>15</v>
       </c>
       <c r="E25" s="5">
-        <v>91.898260263482626</v>
+        <v>72.566595480948166</v>
       </c>
       <c r="F25">
-        <v>110.7015509457194</v>
+        <v>101.5161730867907</v>
       </c>
       <c r="G25">
-        <v>113.77667603384999</v>
+        <v>105.5954243621786</v>
       </c>
       <c r="N25" s="16">
         <v>15</v>
       </c>
       <c r="O25">
-        <v>113.77667603384999</v>
+        <v>101.5161730867907</v>
       </c>
       <c r="P25" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q25" s="9">
-        <v>105.79</v>
+      <c r="Q25">
+        <v>98.21</v>
+      </c>
+      <c r="R25">
+        <v>72.566595480948166</v>
+      </c>
+      <c r="S25">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>20</v>
       </c>
       <c r="E26" s="5">
-        <v>91.898260263482626</v>
+        <v>72.566595480948166</v>
       </c>
       <c r="F26">
-        <v>110.70155094571925</v>
+        <v>101.5161730867907</v>
       </c>
       <c r="G26">
-        <v>113.77667583039999</v>
+        <v>105.65801157125878</v>
       </c>
       <c r="N26" s="16">
         <v>20</v>
       </c>
       <c r="O26">
-        <v>113.77667583039999</v>
+        <v>101.5161730867907</v>
       </c>
       <c r="P26" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q26" s="9">
-        <v>105.79</v>
+      <c r="Q26">
+        <v>98.21</v>
+      </c>
+      <c r="R26">
+        <v>72.566595480948166</v>
+      </c>
+      <c r="S26">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>30</v>
       </c>
       <c r="E27" s="5">
-        <v>98.547551243872817</v>
+        <v>94.969214935371596</v>
       </c>
       <c r="F27">
-        <v>108.61988638874692</v>
+        <v>100.58042737501955</v>
       </c>
       <c r="G27">
-        <v>109.10116875113199</v>
+        <v>104.24589839139753</v>
       </c>
       <c r="N27" s="16">
         <v>30</v>
       </c>
       <c r="O27">
-        <v>109.10116875113199</v>
+        <v>100.58042737501955</v>
       </c>
       <c r="P27" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q27" s="9">
-        <v>105.79</v>
+      <c r="Q27">
+        <v>98.21</v>
+      </c>
+      <c r="R27">
+        <v>94.969214935371596</v>
+      </c>
+      <c r="S27">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>40</v>
       </c>
       <c r="E28" s="5">
-        <v>104.64102684745468</v>
+        <v>98.727971997146398</v>
       </c>
       <c r="F28">
-        <v>107.85926768980687</v>
+        <v>100.49822044916883</v>
       </c>
       <c r="G28">
-        <v>108.939860599159</v>
+        <v>102.50667366980555</v>
       </c>
       <c r="N28" s="16">
         <v>40</v>
       </c>
       <c r="O28">
-        <v>108.939860599159</v>
+        <v>100.49822044916883</v>
       </c>
       <c r="P28" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q28" s="9">
-        <v>105.79</v>
+      <c r="Q28">
+        <v>98.21</v>
+      </c>
+      <c r="R28">
+        <v>98.727971997146398</v>
+      </c>
+      <c r="S28">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>50</v>
       </c>
       <c r="E29" s="5">
-        <v>104.64102684745468</v>
+        <v>98.727971997146398</v>
       </c>
       <c r="F29">
-        <v>107.85926768980687</v>
+        <v>100.49822044916883</v>
       </c>
       <c r="G29">
-        <v>108.522081297307</v>
+        <v>102.49033151533575</v>
       </c>
       <c r="N29" s="16">
         <v>50</v>
       </c>
       <c r="O29">
-        <v>108.522081297307</v>
+        <v>100.49822044916883</v>
       </c>
       <c r="P29" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q29" s="9">
-        <v>105.79</v>
+      <c r="Q29">
+        <v>98.21</v>
+      </c>
+      <c r="R29">
+        <v>98.727971997146398</v>
+      </c>
+      <c r="S29">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>75</v>
       </c>
       <c r="E30" s="5">
-        <v>104.64102684745468</v>
+        <v>98.727971997146398</v>
       </c>
       <c r="F30">
-        <v>107.85926768980687</v>
+        <v>100.49822044916883</v>
       </c>
       <c r="G30">
-        <v>108.30782755820999</v>
+        <v>102.34419277546884</v>
       </c>
       <c r="N30" s="16">
         <v>75</v>
       </c>
       <c r="O30">
-        <v>108.30782755820999</v>
+        <v>100.49822044916883</v>
       </c>
       <c r="P30" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q30" s="9">
-        <v>105.79</v>
+      <c r="Q30">
+        <v>98.21</v>
+      </c>
+      <c r="R30">
+        <v>98.727971997146398</v>
+      </c>
+      <c r="S30">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>100</v>
       </c>
       <c r="E31" s="5">
-        <v>104.64102684745468</v>
+        <v>98.727971997146398</v>
       </c>
       <c r="F31">
-        <v>107.85926768980687</v>
+        <v>100.49822044916883</v>
       </c>
       <c r="G31">
-        <v>108.30782755820999</v>
+        <v>102.34867278553726</v>
       </c>
       <c r="N31" s="16">
         <v>100</v>
       </c>
       <c r="O31">
-        <v>108.30782755820999</v>
+        <v>100.49822044916883</v>
       </c>
       <c r="P31" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q31" s="9">
-        <v>105.79</v>
+      <c r="Q31">
+        <v>98.21</v>
+      </c>
+      <c r="R31">
+        <v>98.727971997146398</v>
+      </c>
+      <c r="S31">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>150</v>
       </c>
       <c r="E32" s="5">
-        <v>104.65966197236172</v>
+        <v>98.378909362507855</v>
       </c>
       <c r="F32">
-        <v>107.32817673556752</v>
+        <v>99.792292178679489</v>
       </c>
       <c r="G32">
-        <v>108.307753839645</v>
+        <v>104.86033637984059</v>
       </c>
       <c r="N32" s="16">
         <v>150</v>
       </c>
       <c r="O32">
-        <v>108.307753839645</v>
+        <v>99.792292178679489</v>
       </c>
       <c r="P32" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q32" s="9">
-        <v>105.79</v>
+      <c r="Q32">
+        <v>98.21</v>
+      </c>
+      <c r="R32">
+        <v>98.378909362507855</v>
+      </c>
+      <c r="S32">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>200</v>
       </c>
       <c r="E33" s="5">
-        <v>105.95904183257875</v>
+        <v>99.271374047134231</v>
       </c>
       <c r="F33">
-        <v>107.02330865922056</v>
+        <v>99.737886832287828</v>
       </c>
       <c r="G33">
-        <v>108.307753812408</v>
+        <v>104.02769253557477</v>
       </c>
       <c r="N33" s="16">
         <v>200</v>
       </c>
       <c r="O33">
-        <v>108.307753812408</v>
+        <v>99.737886832287828</v>
       </c>
       <c r="P33" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q33" s="9">
-        <v>105.79</v>
+      <c r="Q33">
+        <v>98.21</v>
+      </c>
+      <c r="R33">
+        <v>99.271374047134231</v>
+      </c>
+      <c r="S33">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>300</v>
       </c>
       <c r="E34" s="5">
-        <v>105.75575769376563</v>
+        <v>99.110879494441221</v>
       </c>
       <c r="F34">
-        <v>106.8179711452669</v>
+        <v>99.575971212788303</v>
       </c>
       <c r="G34">
-        <v>108.11871201266</v>
+        <v>104.09193638257148</v>
       </c>
       <c r="N34" s="16">
         <v>300</v>
       </c>
       <c r="O34">
-        <v>108.11871201266</v>
+        <v>99.575971212788303</v>
       </c>
       <c r="P34" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q34" s="9">
-        <v>105.79</v>
+      <c r="Q34">
+        <v>98.21</v>
+      </c>
+      <c r="R34">
+        <v>99.110879494441221</v>
+      </c>
+      <c r="S34">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>400</v>
       </c>
       <c r="E35" s="7">
-        <v>105.75575769376563</v>
+        <v>97.813741567393123</v>
       </c>
       <c r="F35">
-        <v>106.8179711452669</v>
+        <v>98.605575455121723</v>
       </c>
       <c r="G35">
-        <v>108.100436427529</v>
+        <v>104.27</v>
       </c>
       <c r="N35" s="17">
         <v>400</v>
       </c>
       <c r="O35">
-        <v>108.100436427529</v>
+        <v>98.605575455121723</v>
       </c>
       <c r="P35" s="11">
         <v>120.37</v>
       </c>
-      <c r="Q35" s="9">
-        <v>105.79</v>
+      <c r="Q35">
+        <v>98.21</v>
+      </c>
+      <c r="R35">
+        <v>97.813741567393123</v>
+      </c>
+      <c r="S35">
+        <v>5.9978674496961002</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -13033,7 +20888,7 @@
         <v>112.66118740144987</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>5</v>
       </c>
@@ -13056,7 +20911,7 @@
         <v>109.20354038562397</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>10</v>
       </c>
@@ -13079,7 +20934,7 @@
         <v>112.78804965807207</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>15</v>
       </c>
@@ -13102,7 +20957,7 @@
         <v>117.15078233754488</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>20</v>
       </c>
@@ -13125,7 +20980,7 @@
         <v>117.63506396257284</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>30</v>
       </c>
@@ -13148,7 +21003,7 @@
         <v>119.35093760876916</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>40</v>
       </c>
@@ -13171,7 +21026,7 @@
         <v>116.68525913860371</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>50</v>
       </c>
@@ -13194,7 +21049,7 @@
         <v>115.87529231821765</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>75</v>
       </c>
@@ -13220,7 +21075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>100</v>
       </c>
@@ -13243,7 +21098,7 @@
         <v>114.75802726767851</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>150</v>
       </c>
@@ -13348,13 +21203,13 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -13370,11 +21225,20 @@
       <c r="A56" s="15">
         <v>5</v>
       </c>
+      <c r="B56" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C56">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D56">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E56" s="3">
         <v>92.408536944526261</v>
       </c>
       <c r="F56">
-        <v>128.85223961904114</v>
+        <v>126.21973694452626</v>
       </c>
       <c r="G56">
         <v>126.96</v>
@@ -13384,11 +21248,20 @@
       <c r="A57" s="16">
         <v>10</v>
       </c>
+      <c r="B57" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C57">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D57">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E57" s="5">
         <v>110.46002300648922</v>
       </c>
       <c r="F57">
-        <v>130.95960576090386</v>
+        <v>129.47882300648922</v>
       </c>
       <c r="G57">
         <v>130.75</v>
@@ -13398,11 +21271,20 @@
       <c r="A58" s="16">
         <v>15</v>
       </c>
+      <c r="B58" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C58">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D58">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E58" s="5">
         <v>118.23400143363257</v>
       </c>
       <c r="F58">
-        <v>130.76152422799706</v>
+        <v>129.85660143363256</v>
       </c>
       <c r="G58">
         <v>130.47</v>
@@ -13412,11 +21294,20 @@
       <c r="A59" s="16">
         <v>20</v>
       </c>
+      <c r="B59" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C59">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D59">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E59" s="5">
         <v>118.23400143363043</v>
       </c>
       <c r="F59">
-        <v>130.7615242279949</v>
+        <v>129.85660143363043</v>
       </c>
       <c r="G59">
         <v>130.47</v>
@@ -13426,11 +21317,20 @@
       <c r="A60" s="16">
         <v>30</v>
       </c>
+      <c r="B60" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C60">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D60">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E60" s="5">
         <v>125.43687005537154</v>
       </c>
       <c r="F60">
-        <v>131.70063145255378</v>
+        <v>131.24817005537153</v>
       </c>
       <c r="G60">
         <v>131.04499999999999</v>
@@ -13440,11 +21340,20 @@
       <c r="A61" s="16">
         <v>40</v>
       </c>
+      <c r="B61" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C61">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D61">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E61" s="5">
         <v>125.43687005537154</v>
       </c>
       <c r="F61">
-        <v>131.70063145255378</v>
+        <v>131.24817005537153</v>
       </c>
       <c r="G61">
         <v>129.83000000000001</v>
@@ -13454,11 +21363,20 @@
       <c r="A62" s="16">
         <v>50</v>
       </c>
+      <c r="B62" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C62">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D62">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E62" s="5">
         <v>125.74267155861624</v>
       </c>
       <c r="F62">
-        <v>130.86756724721988</v>
+        <v>130.49737155861624</v>
       </c>
       <c r="G62">
         <v>129.83000000000001</v>
@@ -13468,11 +21386,20 @@
       <c r="A63" s="16">
         <v>75</v>
       </c>
+      <c r="B63" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C63">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D63">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E63" s="5">
         <v>126.35921352797935</v>
       </c>
       <c r="F63">
-        <v>128.06751209084723</v>
+        <v>127.94411352797935</v>
       </c>
       <c r="G63">
         <v>127.79</v>
@@ -13482,11 +21409,20 @@
       <c r="A64" s="16">
         <v>100</v>
       </c>
+      <c r="B64" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C64">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D64">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E64" s="5">
         <v>126.35921352797935</v>
       </c>
       <c r="F64">
-        <v>128.06751209084723</v>
+        <v>127.94411352797935</v>
       </c>
       <c r="G64">
         <v>127.79</v>
@@ -13496,11 +21432,20 @@
       <c r="A65" s="16">
         <v>150</v>
       </c>
+      <c r="B65" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C65">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D65">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E65" s="5">
         <v>126.35921352797935</v>
       </c>
       <c r="F65">
-        <v>128.06751209084723</v>
+        <v>127.94411352797935</v>
       </c>
       <c r="G65">
         <v>127.53</v>
@@ -13510,11 +21455,20 @@
       <c r="A66" s="16">
         <v>200</v>
       </c>
+      <c r="B66" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C66">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D66">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E66" s="5">
         <v>127.49336474121159</v>
       </c>
       <c r="F66">
-        <v>128.06279759550088</v>
+        <v>128.02166474121159</v>
       </c>
       <c r="G66">
         <v>128.53</v>
@@ -13524,11 +21478,20 @@
       <c r="A67" s="16">
         <v>300</v>
       </c>
+      <c r="B67" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C67">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D67">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E67" s="5">
         <v>127.49336474121159</v>
       </c>
       <c r="F67">
-        <v>128.06279759550088</v>
+        <v>128.02166474121159</v>
       </c>
       <c r="G67">
         <v>128.53</v>
@@ -13538,6 +21501,15 @@
       <c r="A68" s="17">
         <v>400</v>
       </c>
+      <c r="B68" s="11">
+        <v>134.18</v>
+      </c>
+      <c r="C68">
+        <v>121.40867917165258</v>
+      </c>
+      <c r="D68">
+        <v>91.823879171652592</v>
+      </c>
       <c r="E68" s="7">
         <v>127.8647868552555</v>
       </c>
@@ -13550,7 +21522,7 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N21:Q21"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>

--- a/results/robust_recourse_iterative/Main workbooks/simul results comparison.xlsx
+++ b/results/robust_recourse_iterative/Main workbooks/simul results comparison.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Combined results recourse algorithm</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>reversion eev</t>
+  </si>
+  <si>
+    <t>gap penalties</t>
+  </si>
+  <si>
+    <t>gap</t>
   </si>
 </sst>
 </file>
@@ -838,6 +844,45 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>50.994815582205263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.65470671242565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.949577605842535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.949577605842535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6112124396479572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7702484520224289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7702484520224289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7702484520224289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7702484520224289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4133828161716337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46651278515359706</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46509171834708241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79183388772860042</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19603,8 +19648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20407,6 +20452,9 @@
       <c r="G22" t="s">
         <v>15</v>
       </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
       <c r="O22" t="s">
         <v>18</v>
       </c>
@@ -20436,6 +20484,10 @@
       <c r="G23">
         <v>101.46986872327017</v>
       </c>
+      <c r="H23">
+        <f>F23-E23</f>
+        <v>50.994815582205263</v>
+      </c>
       <c r="N23" s="15">
         <v>5</v>
       </c>
@@ -20468,6 +20520,10 @@
       <c r="G24">
         <v>102.42272161834309</v>
       </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H35" si="6">F24-E24</f>
+        <v>31.65470671242565</v>
+      </c>
       <c r="N24" s="16">
         <v>10</v>
       </c>
@@ -20500,6 +20556,10 @@
       <c r="G25">
         <v>105.5954243621786</v>
       </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>28.949577605842535</v>
+      </c>
       <c r="N25" s="16">
         <v>15</v>
       </c>
@@ -20532,6 +20592,10 @@
       <c r="G26">
         <v>105.65801157125878</v>
       </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>28.949577605842535</v>
+      </c>
       <c r="N26" s="16">
         <v>20</v>
       </c>
@@ -20564,6 +20628,10 @@
       <c r="G27">
         <v>104.24589839139753</v>
       </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>5.6112124396479572</v>
+      </c>
       <c r="N27" s="16">
         <v>30</v>
       </c>
@@ -20596,6 +20664,10 @@
       <c r="G28">
         <v>102.50667366980555</v>
       </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>1.7702484520224289</v>
+      </c>
       <c r="N28" s="16">
         <v>40</v>
       </c>
@@ -20628,6 +20700,10 @@
       <c r="G29">
         <v>102.49033151533575</v>
       </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>1.7702484520224289</v>
+      </c>
       <c r="N29" s="16">
         <v>50</v>
       </c>
@@ -20660,6 +20736,10 @@
       <c r="G30">
         <v>102.34419277546884</v>
       </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>1.7702484520224289</v>
+      </c>
       <c r="N30" s="16">
         <v>75</v>
       </c>
@@ -20692,6 +20772,10 @@
       <c r="G31">
         <v>102.34867278553726</v>
       </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>1.7702484520224289</v>
+      </c>
       <c r="N31" s="16">
         <v>100</v>
       </c>
@@ -20724,6 +20808,10 @@
       <c r="G32">
         <v>104.86033637984059</v>
       </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>1.4133828161716337</v>
+      </c>
       <c r="N32" s="16">
         <v>150</v>
       </c>
@@ -20756,6 +20844,10 @@
       <c r="G33">
         <v>104.02769253557477</v>
       </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>0.46651278515359706</v>
+      </c>
       <c r="N33" s="16">
         <v>200</v>
       </c>
@@ -20788,6 +20880,10 @@
       <c r="G34">
         <v>104.09193638257148</v>
       </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>0.46509171834708241</v>
+      </c>
       <c r="N34" s="16">
         <v>300</v>
       </c>
@@ -20820,6 +20916,10 @@
       <c r="G35">
         <v>104.27</v>
       </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>0.79183388772860042</v>
+      </c>
       <c r="N35" s="17">
         <v>400</v>
       </c>
@@ -20854,8 +20954,8 @@
       <c r="G38">
         <v>109.20354038562397</v>
       </c>
-      <c r="H38">
-        <v>112.78804965807207</v>
+      <c r="H38" t="s">
+        <v>24</v>
       </c>
       <c r="I38">
         <v>117.15078233754488</v>
@@ -20910,6 +21010,10 @@
       <c r="G39">
         <v>109.20354038562397</v>
       </c>
+      <c r="H39">
+        <f>E39-B39</f>
+        <v>59.996227542639595</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -20933,6 +21037,10 @@
       <c r="G40">
         <v>112.78804965807207</v>
       </c>
+      <c r="H40">
+        <f t="shared" ref="H40:H51" si="7">E40-B40</f>
+        <v>33.92461294973603</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
@@ -20956,6 +21064,10 @@
       <c r="G41">
         <v>117.15078233754488</v>
       </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>31.132718942974208</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
@@ -20979,6 +21091,10 @@
       <c r="G42">
         <v>117.63506396257284</v>
       </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>15.769045006703095</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
@@ -21002,6 +21118,10 @@
       <c r="G43">
         <v>119.35093760876916</v>
       </c>
+      <c r="H43">
+        <f t="shared" si="7"/>
+        <v>12.421500823171485</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
@@ -21025,6 +21145,10 @@
       <c r="G44">
         <v>116.68525913860371</v>
       </c>
+      <c r="H44">
+        <f t="shared" si="7"/>
+        <v>8.3695634600466633</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
@@ -21048,6 +21172,10 @@
       <c r="G45">
         <v>115.87529231821765</v>
       </c>
+      <c r="H45">
+        <f t="shared" si="7"/>
+        <v>6.8368673757863263</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
@@ -21071,6 +21199,10 @@
       <c r="G46">
         <v>115.87648862685775</v>
       </c>
+      <c r="H46">
+        <f t="shared" si="7"/>
+        <v>5.865982639730106</v>
+      </c>
       <c r="Q46" t="s">
         <v>12</v>
       </c>
@@ -21097,6 +21229,10 @@
       <c r="G47">
         <v>114.75802726767851</v>
       </c>
+      <c r="H47">
+        <f t="shared" si="7"/>
+        <v>5.3032432834049104</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
@@ -21120,8 +21256,12 @@
       <c r="G48">
         <v>112.61797262974525</v>
       </c>
+      <c r="H48">
+        <f t="shared" si="7"/>
+        <v>5.3052014711725661</v>
+      </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>200</v>
       </c>
@@ -21143,8 +21283,12 @@
       <c r="G49">
         <v>112.65443546698727</v>
       </c>
+      <c r="H49">
+        <f t="shared" si="7"/>
+        <v>5.3052014711725661</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>300</v>
       </c>
@@ -21166,8 +21310,12 @@
       <c r="G50">
         <v>112.39</v>
       </c>
+      <c r="H50">
+        <f t="shared" si="7"/>
+        <v>3.3240548737852436</v>
+      </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>400</v>
       </c>
@@ -21189,8 +21337,12 @@
       <c r="G51">
         <v>112.49</v>
       </c>
+      <c r="H51">
+        <f t="shared" si="7"/>
+        <v>3.3240548737852436</v>
+      </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>3</v>
       </c>
@@ -21198,7 +21350,7 @@
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -21220,8 +21372,11 @@
       <c r="G55" t="s">
         <v>15</v>
       </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>5</v>
       </c>
@@ -21243,8 +21398,12 @@
       <c r="G56">
         <v>126.96</v>
       </c>
+      <c r="H56">
+        <f>F56-E56</f>
+        <v>33.811199999999999</v>
+      </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>10</v>
       </c>
@@ -21266,8 +21425,12 @@
       <c r="G57">
         <v>130.75</v>
       </c>
+      <c r="H57">
+        <f t="shared" ref="H57:H68" si="8">F57-E57</f>
+        <v>19.018799999999999</v>
+      </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>15</v>
       </c>
@@ -21289,8 +21452,12 @@
       <c r="G58">
         <v>130.47</v>
       </c>
+      <c r="H58">
+        <f t="shared" si="8"/>
+        <v>11.622599999999991</v>
+      </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>20</v>
       </c>
@@ -21312,8 +21479,12 @@
       <c r="G59">
         <v>130.47</v>
       </c>
+      <c r="H59">
+        <f t="shared" si="8"/>
+        <v>11.622600000000006</v>
+      </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>30</v>
       </c>
@@ -21335,8 +21506,12 @@
       <c r="G60">
         <v>131.04499999999999</v>
       </c>
+      <c r="H60">
+        <f t="shared" si="8"/>
+        <v>5.8112999999999886</v>
+      </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>40</v>
       </c>
@@ -21358,8 +21533,12 @@
       <c r="G61">
         <v>129.83000000000001</v>
       </c>
+      <c r="H61">
+        <f t="shared" si="8"/>
+        <v>5.8112999999999886</v>
+      </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>50</v>
       </c>
@@ -21381,8 +21560,12 @@
       <c r="G62">
         <v>129.83000000000001</v>
       </c>
+      <c r="H62">
+        <f t="shared" si="8"/>
+        <v>4.7546999999999997</v>
+      </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>75</v>
       </c>
@@ -21404,8 +21587,12 @@
       <c r="G63">
         <v>127.79</v>
       </c>
+      <c r="H63">
+        <f t="shared" si="8"/>
+        <v>1.5849000000000046</v>
+      </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>100</v>
       </c>
@@ -21427,8 +21614,12 @@
       <c r="G64">
         <v>127.79</v>
       </c>
+      <c r="H64">
+        <f t="shared" si="8"/>
+        <v>1.5849000000000046</v>
+      </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>150</v>
       </c>
@@ -21450,8 +21641,12 @@
       <c r="G65">
         <v>127.53</v>
       </c>
+      <c r="H65">
+        <f t="shared" si="8"/>
+        <v>1.5849000000000046</v>
+      </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>200</v>
       </c>
@@ -21473,8 +21668,12 @@
       <c r="G66">
         <v>128.53</v>
       </c>
+      <c r="H66">
+        <f t="shared" si="8"/>
+        <v>0.52830000000000155</v>
+      </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>300</v>
       </c>
@@ -21496,8 +21695,12 @@
       <c r="G67">
         <v>128.53</v>
       </c>
+      <c r="H67">
+        <f t="shared" si="8"/>
+        <v>0.52830000000000155</v>
+      </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>400</v>
       </c>
@@ -21518,6 +21721,10 @@
       </c>
       <c r="G68">
         <v>128.19999999999999</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
